--- a/results/SummaryTable_County_wTotals_formatted.xlsx
+++ b/results/SummaryTable_County_wTotals_formatted.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\GitHub\Centers-Capacity-Tool\results\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{92037391-B414-493D-8094-56F0C98AED94}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9B52084F-F66D-4567-B8B1-EBF78D1D1EE8}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="15630" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -768,13 +768,10 @@
     <xf numFmtId="3" fontId="16" fillId="35" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="3" fontId="16" fillId="35" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="18" fillId="33" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="33" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="33" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="18" fillId="33" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="33" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -783,10 +780,13 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="33" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="33" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="18" fillId="33" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="33" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="33" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -1156,7 +1156,7 @@
   <dimension ref="B2:N8"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="G18" sqref="G18"/>
+      <selection activeCell="F18" sqref="F18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1168,10 +1168,10 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:14" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B2" s="25" t="s">
+      <c r="B2" s="24" t="s">
         <v>26</v>
       </c>
-      <c r="C2" s="27" t="s">
+      <c r="C2" s="22" t="s">
         <v>0</v>
       </c>
       <c r="D2" s="29" t="s">
@@ -1180,27 +1180,27 @@
       <c r="E2" s="31" t="s">
         <v>18</v>
       </c>
-      <c r="F2" s="22" t="s">
+      <c r="F2" s="26" t="s">
         <v>5</v>
       </c>
-      <c r="G2" s="23"/>
-      <c r="H2" s="24"/>
-      <c r="I2" s="22" t="s">
+      <c r="G2" s="27"/>
+      <c r="H2" s="28"/>
+      <c r="I2" s="26" t="s">
         <v>3</v>
       </c>
-      <c r="J2" s="23"/>
-      <c r="K2" s="24"/>
-      <c r="L2" s="22" t="s">
+      <c r="J2" s="27"/>
+      <c r="K2" s="28"/>
+      <c r="L2" s="26" t="s">
         <v>7</v>
       </c>
-      <c r="M2" s="23"/>
-      <c r="N2" s="24"/>
+      <c r="M2" s="27"/>
+      <c r="N2" s="28"/>
     </row>
     <row r="3" spans="2:14" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B3" s="26"/>
-      <c r="C3" s="28"/>
+      <c r="B3" s="25"/>
+      <c r="C3" s="23"/>
       <c r="D3" s="30"/>
-      <c r="E3" s="26"/>
+      <c r="E3" s="25"/>
       <c r="F3" s="16" t="s">
         <v>6</v>
       </c>
@@ -1244,7 +1244,7 @@
       </c>
       <c r="E4" s="3">
         <f>(H4+K4)/($H$8+$K$8)</f>
-        <v>9.7061442564559217E-2</v>
+        <v>9.7346261801479969E-2</v>
       </c>
       <c r="F4" s="10">
         <f>SummaryTable_County_wTotals!E2</f>
@@ -1298,7 +1298,7 @@
       </c>
       <c r="E5" s="4">
         <f>(H5+K5)/($H$8+$K$8)</f>
-        <v>0.16448289021752957</v>
+        <v>0.16496555243684613</v>
       </c>
       <c r="F5" s="12">
         <f>SummaryTable_County_wTotals!E3</f>
@@ -1352,7 +1352,7 @@
       </c>
       <c r="E6" s="3">
         <f>(H6+K6)/($H$8+$K$8)</f>
-        <v>0.55705380994784381</v>
+        <v>0.55575401888236797</v>
       </c>
       <c r="F6" s="10">
         <f>SummaryTable_County_wTotals!E4</f>
@@ -1360,11 +1360,11 @@
       </c>
       <c r="G6" s="1">
         <f>SummaryTable_County_wTotals!F4</f>
-        <v>591400</v>
+        <v>589900</v>
       </c>
       <c r="H6" s="18">
         <f>SummaryTable_County_wTotals!G4</f>
-        <v>288600</v>
+        <v>287100</v>
       </c>
       <c r="I6" s="10">
         <f>SummaryTable_County_wTotals!H4</f>
@@ -1372,11 +1372,11 @@
       </c>
       <c r="J6" s="1">
         <f>SummaryTable_County_wTotals!I4</f>
-        <v>194300</v>
+        <v>193500</v>
       </c>
       <c r="K6" s="18">
         <f>SummaryTable_County_wTotals!J4</f>
-        <v>149300</v>
+        <v>148500</v>
       </c>
       <c r="L6" s="10">
         <f>SummaryTable_County_wTotals!K4</f>
@@ -1406,7 +1406,7 @@
       </c>
       <c r="E7" s="4">
         <f>(H7+K7)/($H$8+$K$8)</f>
-        <v>0.18165627782724844</v>
+        <v>0.18218933401377901</v>
       </c>
       <c r="F7" s="12">
         <f>SummaryTable_County_wTotals!E5</f>
@@ -1467,11 +1467,11 @@
       </c>
       <c r="G8" s="20">
         <f>SummaryTable_County_wTotals!F6</f>
-        <v>1011400</v>
+        <v>1009900</v>
       </c>
       <c r="H8" s="21">
         <f>SummaryTable_County_wTotals!G6</f>
-        <v>527500</v>
+        <v>526000</v>
       </c>
       <c r="I8" s="14">
         <f>SummaryTable_County_wTotals!H6</f>
@@ -1479,11 +1479,11 @@
       </c>
       <c r="J8" s="20">
         <f>SummaryTable_County_wTotals!I6</f>
-        <v>342600</v>
+        <v>341800</v>
       </c>
       <c r="K8" s="21">
         <f>SummaryTable_County_wTotals!J6</f>
-        <v>258600</v>
+        <v>257800</v>
       </c>
       <c r="L8" s="14">
         <f>SummaryTable_County_wTotals!K6</f>
@@ -1518,7 +1518,7 @@
   <dimension ref="A1:M6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D7" sqref="D7"/>
+      <selection activeCell="F16" sqref="F16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1678,19 +1678,19 @@
         <v>302800</v>
       </c>
       <c r="F4">
-        <v>591400</v>
+        <v>589900</v>
       </c>
       <c r="G4">
-        <v>288600</v>
+        <v>287100</v>
       </c>
       <c r="H4">
         <v>45000</v>
       </c>
       <c r="I4">
-        <v>194300</v>
+        <v>193500</v>
       </c>
       <c r="J4">
-        <v>149300</v>
+        <v>148500</v>
       </c>
       <c r="K4">
         <v>19</v>
@@ -1757,19 +1757,19 @@
         <v>483900</v>
       </c>
       <c r="F6">
-        <v>1011400</v>
+        <v>1009900</v>
       </c>
       <c r="G6">
-        <v>527500</v>
+        <v>526000</v>
       </c>
       <c r="H6">
         <v>84000</v>
       </c>
       <c r="I6">
-        <v>342600</v>
+        <v>341800</v>
       </c>
       <c r="J6">
-        <v>258600</v>
+        <v>257800</v>
       </c>
       <c r="K6">
         <v>16</v>

--- a/results/SummaryTable_County_wTotals_formatted.xlsx
+++ b/results/SummaryTable_County_wTotals_formatted.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\GitHub\Centers-Capacity-Tool\results\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9B52084F-F66D-4567-B8B1-EBF78D1D1EE8}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{07138A0E-DB38-4FFC-855C-FD964C612DA0}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="15630" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1156,7 +1156,7 @@
   <dimension ref="B2:N8"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="F18" sqref="F18"/>
+      <selection activeCell="B2" sqref="B2:B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1244,7 +1244,7 @@
       </c>
       <c r="E4" s="3">
         <f>(H4+K4)/($H$8+$K$8)</f>
-        <v>9.7346261801479969E-2</v>
+        <v>0.10809686662353267</v>
       </c>
       <c r="F4" s="10">
         <f>SummaryTable_County_wTotals!E2</f>
@@ -1252,11 +1252,11 @@
       </c>
       <c r="G4" s="1">
         <f>SummaryTable_County_wTotals!F2</f>
-        <v>101500</v>
+        <v>235400</v>
       </c>
       <c r="H4" s="18">
         <f>SummaryTable_County_wTotals!G2</f>
-        <v>53000</v>
+        <v>186900</v>
       </c>
       <c r="I4" s="10">
         <f>SummaryTable_County_wTotals!H2</f>
@@ -1264,11 +1264,11 @@
       </c>
       <c r="J4" s="1">
         <f>SummaryTable_County_wTotals!I2</f>
-        <v>33400</v>
+        <v>57100</v>
       </c>
       <c r="K4" s="18">
         <f>SummaryTable_County_wTotals!J2</f>
-        <v>23300</v>
+        <v>47000</v>
       </c>
       <c r="L4" s="10">
         <f>SummaryTable_County_wTotals!K2</f>
@@ -1276,11 +1276,11 @@
       </c>
       <c r="M4" s="1">
         <f>SummaryTable_County_wTotals!L2</f>
-        <v>24</v>
+        <v>52</v>
       </c>
       <c r="N4" s="18">
         <f>SummaryTable_County_wTotals!M2</f>
-        <v>14</v>
+        <v>42</v>
       </c>
     </row>
     <row r="5" spans="2:14" x14ac:dyDescent="0.25">
@@ -1298,7 +1298,7 @@
       </c>
       <c r="E5" s="4">
         <f>(H5+K5)/($H$8+$K$8)</f>
-        <v>0.16496555243684613</v>
+        <v>0.16313892226638321</v>
       </c>
       <c r="F5" s="12">
         <f>SummaryTable_County_wTotals!E3</f>
@@ -1306,11 +1306,11 @@
       </c>
       <c r="G5" s="2">
         <f>SummaryTable_County_wTotals!F3</f>
-        <v>131200</v>
+        <v>327800</v>
       </c>
       <c r="H5" s="19">
         <f>SummaryTable_County_wTotals!G3</f>
-        <v>88200</v>
+        <v>284800</v>
       </c>
       <c r="I5" s="12">
         <f>SummaryTable_County_wTotals!H3</f>
@@ -1318,11 +1318,11 @@
       </c>
       <c r="J5" s="2">
         <f>SummaryTable_County_wTotals!I3</f>
-        <v>51400</v>
+        <v>78500</v>
       </c>
       <c r="K5" s="19">
         <f>SummaryTable_County_wTotals!J3</f>
-        <v>41100</v>
+        <v>68200</v>
       </c>
       <c r="L5" s="12">
         <f>SummaryTable_County_wTotals!K3</f>
@@ -1330,11 +1330,11 @@
       </c>
       <c r="M5" s="2">
         <f>SummaryTable_County_wTotals!L3</f>
-        <v>32</v>
+        <v>72</v>
       </c>
       <c r="N5" s="19">
         <f>SummaryTable_County_wTotals!M3</f>
-        <v>23</v>
+        <v>63</v>
       </c>
     </row>
     <row r="6" spans="2:14" x14ac:dyDescent="0.25">
@@ -1352,7 +1352,7 @@
       </c>
       <c r="E6" s="3">
         <f>(H6+K6)/($H$8+$K$8)</f>
-        <v>0.55575401888236797</v>
+        <v>0.53590904889546165</v>
       </c>
       <c r="F6" s="10">
         <f>SummaryTable_County_wTotals!E4</f>
@@ -1360,11 +1360,11 @@
       </c>
       <c r="G6" s="1">
         <f>SummaryTable_County_wTotals!F4</f>
-        <v>589900</v>
+        <v>1208500</v>
       </c>
       <c r="H6" s="18">
         <f>SummaryTable_County_wTotals!G4</f>
-        <v>287100</v>
+        <v>905700</v>
       </c>
       <c r="I6" s="10">
         <f>SummaryTable_County_wTotals!H4</f>
@@ -1372,11 +1372,11 @@
       </c>
       <c r="J6" s="1">
         <f>SummaryTable_County_wTotals!I4</f>
-        <v>193500</v>
+        <v>298900</v>
       </c>
       <c r="K6" s="18">
         <f>SummaryTable_County_wTotals!J4</f>
-        <v>148500</v>
+        <v>253900</v>
       </c>
       <c r="L6" s="10">
         <f>SummaryTable_County_wTotals!K4</f>
@@ -1384,11 +1384,11 @@
       </c>
       <c r="M6" s="1">
         <f>SummaryTable_County_wTotals!L4</f>
-        <v>43</v>
+        <v>82</v>
       </c>
       <c r="N6" s="18">
         <f>SummaryTable_County_wTotals!M4</f>
-        <v>24</v>
+        <v>63</v>
       </c>
     </row>
     <row r="7" spans="2:14" x14ac:dyDescent="0.25">
@@ -1406,7 +1406,7 @@
       </c>
       <c r="E7" s="4">
         <f>(H7+K7)/($H$8+$K$8)</f>
-        <v>0.18218933401377901</v>
+        <v>0.19294759219890933</v>
       </c>
       <c r="F7" s="12">
         <f>SummaryTable_County_wTotals!E5</f>
@@ -1414,11 +1414,11 @@
       </c>
       <c r="G7" s="2">
         <f>SummaryTable_County_wTotals!F5</f>
-        <v>187400</v>
+        <v>421200</v>
       </c>
       <c r="H7" s="19">
         <f>SummaryTable_County_wTotals!G5</f>
-        <v>97900</v>
+        <v>331700</v>
       </c>
       <c r="I7" s="12">
         <f>SummaryTable_County_wTotals!H5</f>
@@ -1426,11 +1426,11 @@
       </c>
       <c r="J7" s="2">
         <f>SummaryTable_County_wTotals!I5</f>
-        <v>63500</v>
+        <v>104400</v>
       </c>
       <c r="K7" s="19">
         <f>SummaryTable_County_wTotals!J5</f>
-        <v>44900</v>
+        <v>85800</v>
       </c>
       <c r="L7" s="12">
         <f>SummaryTable_County_wTotals!K5</f>
@@ -1438,11 +1438,11 @@
       </c>
       <c r="M7" s="2">
         <f>SummaryTable_County_wTotals!L5</f>
-        <v>37</v>
+        <v>78</v>
       </c>
       <c r="N7" s="19">
         <f>SummaryTable_County_wTotals!M5</f>
-        <v>21</v>
+        <v>62</v>
       </c>
     </row>
     <row r="8" spans="2:14" x14ac:dyDescent="0.25">
@@ -1467,11 +1467,11 @@
       </c>
       <c r="G8" s="20">
         <f>SummaryTable_County_wTotals!F6</f>
-        <v>1009900</v>
+        <v>2192900</v>
       </c>
       <c r="H8" s="21">
         <f>SummaryTable_County_wTotals!G6</f>
-        <v>526000</v>
+        <v>1709000</v>
       </c>
       <c r="I8" s="14">
         <f>SummaryTable_County_wTotals!H6</f>
@@ -1479,11 +1479,11 @@
       </c>
       <c r="J8" s="20">
         <f>SummaryTable_County_wTotals!I6</f>
-        <v>341800</v>
+        <v>538800</v>
       </c>
       <c r="K8" s="21">
         <f>SummaryTable_County_wTotals!J6</f>
-        <v>257800</v>
+        <v>454800</v>
       </c>
       <c r="L8" s="14">
         <f>SummaryTable_County_wTotals!K6</f>
@@ -1491,11 +1491,11 @@
       </c>
       <c r="M8" s="20">
         <f>SummaryTable_County_wTotals!L6</f>
-        <v>37</v>
+        <v>75</v>
       </c>
       <c r="N8" s="21">
         <f>SummaryTable_County_wTotals!M6</f>
-        <v>21</v>
+        <v>59</v>
       </c>
     </row>
   </sheetData>
@@ -1518,7 +1518,7 @@
   <dimension ref="A1:M6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F16" sqref="F16"/>
+      <selection sqref="A1:M6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1596,28 +1596,28 @@
         <v>48500</v>
       </c>
       <c r="F2">
-        <v>101500</v>
+        <v>235400</v>
       </c>
       <c r="G2">
-        <v>53000</v>
+        <v>186900</v>
       </c>
       <c r="H2">
         <v>10100</v>
       </c>
       <c r="I2">
-        <v>33400</v>
+        <v>57100</v>
       </c>
       <c r="J2">
-        <v>23300</v>
+        <v>47000</v>
       </c>
       <c r="K2">
         <v>10</v>
       </c>
       <c r="L2">
-        <v>24</v>
+        <v>52</v>
       </c>
       <c r="M2">
-        <v>14</v>
+        <v>42</v>
       </c>
     </row>
     <row r="3" spans="1:13" x14ac:dyDescent="0.25">
@@ -1637,28 +1637,28 @@
         <v>43000</v>
       </c>
       <c r="F3">
-        <v>131200</v>
+        <v>327800</v>
       </c>
       <c r="G3">
-        <v>88200</v>
+        <v>284800</v>
       </c>
       <c r="H3">
         <v>10300</v>
       </c>
       <c r="I3">
-        <v>51400</v>
+        <v>78500</v>
       </c>
       <c r="J3">
-        <v>41100</v>
+        <v>68200</v>
       </c>
       <c r="K3">
         <v>9</v>
       </c>
       <c r="L3">
-        <v>32</v>
+        <v>72</v>
       </c>
       <c r="M3">
-        <v>23</v>
+        <v>63</v>
       </c>
     </row>
     <row r="4" spans="1:13" x14ac:dyDescent="0.25">
@@ -1678,28 +1678,28 @@
         <v>302800</v>
       </c>
       <c r="F4">
-        <v>589900</v>
+        <v>1208500</v>
       </c>
       <c r="G4">
-        <v>287100</v>
+        <v>905700</v>
       </c>
       <c r="H4">
         <v>45000</v>
       </c>
       <c r="I4">
-        <v>193500</v>
+        <v>298900</v>
       </c>
       <c r="J4">
-        <v>148500</v>
+        <v>253900</v>
       </c>
       <c r="K4">
         <v>19</v>
       </c>
       <c r="L4">
-        <v>43</v>
+        <v>82</v>
       </c>
       <c r="M4">
-        <v>24</v>
+        <v>63</v>
       </c>
     </row>
     <row r="5" spans="1:13" x14ac:dyDescent="0.25">
@@ -1719,28 +1719,28 @@
         <v>89500</v>
       </c>
       <c r="F5">
-        <v>187400</v>
+        <v>421200</v>
       </c>
       <c r="G5">
-        <v>97900</v>
+        <v>331700</v>
       </c>
       <c r="H5">
         <v>18600</v>
       </c>
       <c r="I5">
-        <v>63500</v>
+        <v>104400</v>
       </c>
       <c r="J5">
-        <v>44900</v>
+        <v>85800</v>
       </c>
       <c r="K5">
         <v>16</v>
       </c>
       <c r="L5">
-        <v>37</v>
+        <v>78</v>
       </c>
       <c r="M5">
-        <v>21</v>
+        <v>62</v>
       </c>
     </row>
     <row r="6" spans="1:13" x14ac:dyDescent="0.25">
@@ -1751,34 +1751,34 @@
         <v>10</v>
       </c>
       <c r="D6">
-        <v>36374.3731105755</v>
+        <v>36374.373110575601</v>
       </c>
       <c r="E6">
         <v>483900</v>
       </c>
       <c r="F6">
-        <v>1009900</v>
+        <v>2192900</v>
       </c>
       <c r="G6">
-        <v>526000</v>
+        <v>1709000</v>
       </c>
       <c r="H6">
         <v>84000</v>
       </c>
       <c r="I6">
-        <v>341800</v>
+        <v>538800</v>
       </c>
       <c r="J6">
-        <v>257800</v>
+        <v>454800</v>
       </c>
       <c r="K6">
         <v>16</v>
       </c>
       <c r="L6">
-        <v>37</v>
+        <v>75</v>
       </c>
       <c r="M6">
-        <v>21</v>
+        <v>59</v>
       </c>
     </row>
   </sheetData>
